--- a/public/data/menu.xlsx
+++ b/public/data/menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghani\Desktop\NewMenu\new-menu\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0564E585-2FFE-4A33-A9F2-62C120963F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E077EEBC-7F4C-4467-85ED-A38A18FC098A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649022CE-5737-4CEC-BD92-568178AD4759}"/>
+    <workbookView xWindow="4620" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{649022CE-5737-4CEC-BD92-568178AD4759}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -222,9 +222,6 @@
     <t>ماء</t>
   </si>
   <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/VegiPizza.JPEG </t>
-  </si>
-  <si>
     <t xml:space="preserve">/images/pizzaAndPastries/MargPizza.JPEG </t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>/images/drinks/Water.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizzaAndPastries/VegiPizza.JPG </t>
   </si>
 </sst>
 </file>
@@ -684,8 +684,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +833,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -913,7 +913,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -924,16 +924,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -953,7 +953,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -973,7 +973,7 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1033,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,16 +1084,16 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1113,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1133,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1204,16 +1204,16 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1224,16 +1224,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
         <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/menu.xlsx
+++ b/public/data/menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghani\Desktop\NewMenu\new-menu\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E077EEBC-7F4C-4467-85ED-A38A18FC098A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088CECF7-C652-4353-9D8C-42E260BFCAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{649022CE-5737-4CEC-BD92-568178AD4759}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649022CE-5737-4CEC-BD92-568178AD4759}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -222,18 +222,6 @@
     <t>ماء</t>
   </si>
   <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/MargPizza.JPEG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/BeefPizza.JPEG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/BeefPie.JPEG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/ZaaterPie.JPEG </t>
-  </si>
-  <si>
     <t>/images/grills/AwsalBeef.JPEG</t>
   </si>
   <si>
@@ -267,9 +255,6 @@
     <t>/images/grills/AwsalTawooq.JPG</t>
   </si>
   <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/CheesePastry.JPG </t>
-  </si>
-  <si>
     <t>فطيرة زعتر</t>
   </si>
   <si>
@@ -309,7 +294,22 @@
     <t>/images/drinks/Water.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/VegiPizza.JPG </t>
+    <t xml:space="preserve">/images/pizza/VegiPizza.JPG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizza/MargPizza.JPEG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizza/BeefPizza.JPEG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizza/BeefPie.JPEG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizza/CheesePastry.JPG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizza/ZaaterPie.JPEG </t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +833,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -913,7 +913,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -924,16 +924,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -953,7 +953,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -973,7 +973,7 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1033,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,16 +1084,16 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E20">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1113,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1133,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1204,16 +1204,16 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E26">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1224,16 +1224,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/menu.xlsx
+++ b/public/data/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghani\Desktop\NewMenu\new-menu\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088CECF7-C652-4353-9D8C-42E260BFCAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E1A6E6-EA2F-4CA9-B2C7-7BD398A94FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649022CE-5737-4CEC-BD92-568178AD4759}"/>
   </bookViews>
@@ -225,18 +225,12 @@
     <t>/images/grills/AwsalBeef.JPEG</t>
   </si>
   <si>
-    <t>/images/grills/BeefKabab.JPG</t>
-  </si>
-  <si>
     <t>/images/salad/Fatoosh.JPEG</t>
   </si>
   <si>
     <t>/images/salad/CaesarSalad.JPEG</t>
   </si>
   <si>
-    <t>/images/salad/Tabula.JPG</t>
-  </si>
-  <si>
     <t>/images/appetizers/Fries.jpg</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
     <t>/images/appetizers/Humos.jpg</t>
   </si>
   <si>
-    <t>/images/grills/AwsalTawooq.JPG</t>
-  </si>
-  <si>
     <t>فطيرة زعتر</t>
   </si>
   <si>
@@ -294,22 +285,31 @@
     <t>/images/drinks/Water.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">/images/pizza/VegiPizza.JPG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/pizza/MargPizza.JPEG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/pizza/BeefPizza.JPEG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/pizza/BeefPie.JPEG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/pizza/CheesePastry.JPG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/pizza/ZaaterPie.JPEG </t>
+    <t xml:space="preserve">/images/pizzaAndPastries/BeefPie.JPEG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizzaAndPastries/ZaaterPie.JPEG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizzaAndPastries/MargPizza.JPEG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizzaAndPastries/BeefPizza.JPEG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizzaAndPastries/VegiPizza.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizzaAndPastries/CheesePastry.jpg </t>
+  </si>
+  <si>
+    <t>/images/grills/AwsalTawooq.jpg</t>
+  </si>
+  <si>
+    <t>/images/grills/BeefKabab.jpg</t>
+  </si>
+  <si>
+    <t>/images/salad/Tabula.jpg</t>
   </si>
 </sst>
 </file>
@@ -684,8 +684,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +833,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -913,7 +913,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -924,16 +924,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -973,7 +973,7 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1033,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,16 +1084,16 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1113,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1133,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1204,16 +1204,16 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E26">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1224,16 +1224,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/menu.xlsx
+++ b/public/data/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghani\Desktop\NewMenu\new-menu\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E1A6E6-EA2F-4CA9-B2C7-7BD398A94FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EC5D6A-D6EB-4159-B631-EC6EAB741B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649022CE-5737-4CEC-BD92-568178AD4759}"/>
   </bookViews>
@@ -222,15 +222,6 @@
     <t>ماء</t>
   </si>
   <si>
-    <t>/images/grills/AwsalBeef.JPEG</t>
-  </si>
-  <si>
-    <t>/images/salad/Fatoosh.JPEG</t>
-  </si>
-  <si>
-    <t>/images/salad/CaesarSalad.JPEG</t>
-  </si>
-  <si>
     <t>/images/appetizers/Fries.jpg</t>
   </si>
   <si>
@@ -285,18 +276,6 @@
     <t>/images/drinks/Water.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/BeefPie.JPEG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/ZaaterPie.JPEG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/MargPizza.JPEG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/BeefPizza.JPEG </t>
-  </si>
-  <si>
     <t xml:space="preserve">/images/pizzaAndPastries/VegiPizza.jpg </t>
   </si>
   <si>
@@ -310,6 +289,27 @@
   </si>
   <si>
     <t>/images/salad/Tabula.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizzaAndPastries/MargPizza.jpeg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizzaAndPastries/BeefPizza.jpeg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizzaAndPastries/BeefPie.jpeg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizzaAndPastries/ZaaterPie.jpeg </t>
+  </si>
+  <si>
+    <t>/images/grills/AwsalBeef.jpeg</t>
+  </si>
+  <si>
+    <t>/images/salad/CaesarSalad.jpeg</t>
+  </si>
+  <si>
+    <t>/images/salad/Fatoosh.jpeg</t>
   </si>
 </sst>
 </file>
@@ -684,8 +684,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +833,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -904,7 +904,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -913,7 +913,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -924,16 +924,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -953,7 +953,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -973,7 +973,7 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1033,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1073,7 +1073,7 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1084,16 +1084,16 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1113,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1133,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1153,7 +1153,7 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1204,16 +1204,16 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E26">
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1224,16 +1224,16 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E27">
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/menu.xlsx
+++ b/public/data/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghani\Desktop\NewMenu\new-menu\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EC5D6A-D6EB-4159-B631-EC6EAB741B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B446ED7-04CA-4917-9587-3595554757EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649022CE-5737-4CEC-BD92-568178AD4759}"/>
   </bookViews>
@@ -270,9 +270,6 @@
     <t>كولا - سفن - برتقال - حمضيات</t>
   </si>
   <si>
-    <t>/images/drinks/Laban.jpeg</t>
-  </si>
-  <si>
     <t>/images/drinks/Water.jpg</t>
   </si>
   <si>
@@ -291,25 +288,28 @@
     <t>/images/salad/Tabula.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/MargPizza.jpeg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/BeefPizza.jpeg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/BeefPie.jpeg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">/images/pizzaAndPastries/ZaaterPie.jpeg </t>
-  </si>
-  <si>
-    <t>/images/grills/AwsalBeef.jpeg</t>
-  </si>
-  <si>
-    <t>/images/salad/CaesarSalad.jpeg</t>
-  </si>
-  <si>
-    <t>/images/salad/Fatoosh.jpeg</t>
+    <t xml:space="preserve">/images/pizzaAndPastries/MargPizza.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizzaAndPastries/BeefPizza.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizzaAndPastries/BeefPie.jpg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/images/pizzaAndPastries/ZaaterPie.jpg </t>
+  </si>
+  <si>
+    <t>/images/grills/AwsalBeef.jpg</t>
+  </si>
+  <si>
+    <t>/images/salad/CaesarSalad.jpg</t>
+  </si>
+  <si>
+    <t>/images/salad/Fatoosh.jpg</t>
+  </si>
+  <si>
+    <t>/images/drinks/Laban.jpg</t>
   </si>
 </sst>
 </file>
@@ -684,8 +684,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +833,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -913,7 +913,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -933,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -953,7 +953,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -973,7 +973,7 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1033,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">

--- a/public/data/menu.xlsx
+++ b/public/data/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghani\Desktop\NewMenu\new-menu\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B446ED7-04CA-4917-9587-3595554757EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BDD8DD-B9AD-4EE6-8DD5-97E1CAB0F0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649022CE-5737-4CEC-BD92-568178AD4759}"/>
   </bookViews>
@@ -685,7 +685,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/public/data/menu.xlsx
+++ b/public/data/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghani\Desktop\NewMenu\new-menu\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BDD8DD-B9AD-4EE6-8DD5-97E1CAB0F0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64A7743-CB5B-4A04-8B2B-30E56EA389FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649022CE-5737-4CEC-BD92-568178AD4759}"/>
   </bookViews>
@@ -270,9 +270,6 @@
     <t>كولا - سفن - برتقال - حمضيات</t>
   </si>
   <si>
-    <t>/images/drinks/Water.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">/images/pizzaAndPastries/VegiPizza.jpg </t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>/images/drinks/Laban.jpg</t>
+  </si>
+  <si>
+    <t>/images/drinks/300Water.jpg</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +833,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -853,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -913,7 +913,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -933,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -953,7 +953,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -973,7 +973,7 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1033,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">

--- a/public/data/menu.xlsx
+++ b/public/data/menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghani\Desktop\NewMenu\new-menu\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64A7743-CB5B-4A04-8B2B-30E56EA389FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC420D3-AFB2-4748-9E4B-667D5FF7E767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{649022CE-5737-4CEC-BD92-568178AD4759}"/>
   </bookViews>
@@ -279,9 +279,6 @@
     <t>/images/grills/AwsalTawooq.jpg</t>
   </si>
   <si>
-    <t>/images/grills/BeefKabab.jpg</t>
-  </si>
-  <si>
     <t>/images/salad/Tabula.jpg</t>
   </si>
   <si>
@@ -310,6 +307,9 @@
   </si>
   <si>
     <t>/images/drinks/300Water.jpg</t>
+  </si>
+  <si>
+    <t>/images/grills/MeatKabab.jpg</t>
   </si>
 </sst>
 </file>
@@ -685,7 +685,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,7 +853,7 @@
         <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -933,7 +933,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -953,7 +953,7 @@
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1033,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1053,7 +1053,7 @@
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1173,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
